--- a/ПишемПрезентацию/4ОИБАС-1120_СПИСОК ТЕЛЕФОНОФФ.xlsx
+++ b/ПишемПрезентацию/4ОИБАС-1120_СПИСОК ТЕЛЕФОНОФФ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Никита\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2023\Downloads\KipFin_Lab_2023-24_Git0\ПишемПрезентацию\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53729F7-9C89-4120-9827-700DA71D9018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="ОИБАС-1120" sheetId="12" r:id="rId1"/>
@@ -312,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -846,29 +845,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="34" style="13" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="21.125" style="13"/>
+    <col min="4" max="16384" width="21.08203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -882,7 +881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -896,7 +895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -910,7 +909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -924,7 +923,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -938,7 +937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -952,7 +951,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -966,7 +965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -980,7 +979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -994,7 +993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -1260,24 +1259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.08203125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="7" customWidth="1"/>
     <col min="4" max="4" width="10" style="15" customWidth="1"/>
     <col min="5" max="5" width="15" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="21.125" style="7"/>
+    <col min="6" max="16384" width="21.08203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>83</v>
       </c>
@@ -1286,7 +1285,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
@@ -1301,7 +1300,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D29" s="7"/>
     </row>
   </sheetData>
